--- a/reports/part_b.xlsx
+++ b/reports/part_b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junkim/Desktop/math3856/ml_assignment_2/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8759B4-91A7-8D4A-809C-2569029DA208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1191ADE-388A-AC41-9358-1C0F2D9B970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -461,28 +461,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.63903225806451613</v>
+        <v>0.59606112054329363</v>
       </c>
       <c r="C2">
-        <v>8.141071714784124E-3</v>
+        <v>8.5048408410903845E-3</v>
       </c>
       <c r="D2">
-        <v>0.55572881355932191</v>
+        <v>0.55308474576271183</v>
       </c>
       <c r="E2">
-        <v>2.880685864260327E-2</v>
+        <v>3.057138523102906E-2</v>
       </c>
       <c r="F2">
-        <v>0.82238440626749953</v>
+        <v>0.78255196010719741</v>
       </c>
       <c r="G2">
-        <v>4.3003561010107284E-3</v>
+        <v>5.1161687131904259E-3</v>
       </c>
       <c r="H2">
-        <v>0.74279143544376813</v>
+        <v>0.74207883690093857</v>
       </c>
       <c r="I2">
-        <v>2.359303745951398E-2</v>
+        <v>2.4931971245483801E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
